--- a/20春_Web数据挖掘_week02_nfu_文学与传媒学院.xlsx
+++ b/20春_Web数据挖掘_week02_nfu_文学与传媒学院.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>标题</t>
   </si>
@@ -37,9 +37,6 @@
     <t>文学与传媒学院考研座谈暨2020年考研交流答疑会圆满结束</t>
   </si>
   <si>
-    <t>文学与传媒学院教师招聘启事</t>
-  </si>
-  <si>
     <t>创意无限，未来可期——文学与传媒学院青马工程第四讲暨闭营仪式顺利举行</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
     <t>毕业季 | 今朝有离别，青春不散场 ——文学与传媒学院2019届毕业生毕业季系列活动有序开展</t>
   </si>
   <si>
+    <t>对话校友，嘉木成林——文学与传媒学院校友访谈会顺利举办</t>
+  </si>
+  <si>
     <t>/index.php/home/article/search_detail/id/6363.html</t>
   </si>
   <si>
@@ -73,9 +73,6 @@
     <t>/index.php/home/article/search_detail/id/6154.html</t>
   </si>
   <si>
-    <t>/index.php/home/article/search_detail/id/5348.html</t>
-  </si>
-  <si>
     <t>/index.php/home/article/search_detail/id/6016.html</t>
   </si>
   <si>
@@ -97,6 +94,9 @@
     <t>/index.php/home/article/search_detail/id/5647.html</t>
   </si>
   <si>
+    <t>/index.php/home/article/search_detail/id/5648.html</t>
+  </si>
+  <si>
     <t>2020-01-06</t>
   </si>
   <si>
@@ -104,9 +104,6 @@
   </si>
   <si>
     <t>2019-11-22</t>
-  </si>
-  <si>
-    <t>2019-11-05</t>
   </si>
   <si>
     <t>2019-11-04</t>
@@ -574,7 +571,7 @@
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -616,7 +613,7 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -644,7 +641,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -658,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
